--- a/raw_data/20200818_saline/20200818_Sensor0_Test_36.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_36.xlsx
@@ -1,2941 +1,3357 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5DB44-B050-474E-9777-D3C98F4BF66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>31502.879984</v>
+        <v>31502.879983999999</v>
       </c>
       <c r="B2" s="1">
-        <v>8.750800</v>
+        <v>8.7507999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>906.583000</v>
+        <v>906.58299999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.511000</v>
+        <v>-197.511</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>31513.618338</v>
       </c>
       <c r="G2" s="1">
-        <v>8.753783</v>
+        <v>8.7537830000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>923.469000</v>
+        <v>923.46900000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.377000</v>
+        <v>-167.37700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>31524.063123</v>
       </c>
       <c r="L2" s="1">
-        <v>8.756684</v>
+        <v>8.7566839999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>945.707000</v>
+        <v>945.70699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.110000</v>
+        <v>-120.11</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>31534.524222</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.759590</v>
+        <v>8.7595899999999993</v>
       </c>
       <c r="R2" s="1">
-        <v>952.446000</v>
+        <v>952.44600000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.255000</v>
+        <v>-104.255</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>31545.072136</v>
+        <v>31545.072135999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.762520</v>
+        <v>8.7625200000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>958.929000</v>
+        <v>958.92899999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.268000</v>
+        <v>-90.268000000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>31555.537806</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.765427</v>
+        <v>8.7654270000000007</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.102000</v>
+        <v>966.10199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.606300</v>
+        <v>-80.606300000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>31566.034060</v>
+        <v>31566.034060000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.768343</v>
+        <v>8.7683429999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.123000</v>
+        <v>971.12300000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.090600</v>
+        <v>-80.090599999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>31576.223906</v>
+        <v>31576.223905999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.771173</v>
+        <v>8.7711729999999992</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.945000</v>
+        <v>978.94500000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.748500</v>
+        <v>-87.748500000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>31586.499490</v>
+        <v>31586.499489999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.774028</v>
+        <v>8.7740279999999995</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.059000</v>
+        <v>988.05899999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.638000</v>
+        <v>-102.63800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>31597.113876</v>
+        <v>31597.113875999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.776976</v>
+        <v>8.7769759999999994</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.343000</v>
+        <v>999.34299999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.212000</v>
+        <v>-124.212</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>31607.473348</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.779854</v>
+        <v>8.7798540000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.003000</v>
+        <v>-143.00299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>31618.062407</v>
+        <v>31618.062407000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.782795</v>
+        <v>8.7827950000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.355000</v>
+        <v>-228.35499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>31629.034904</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.785843</v>
+        <v>8.7858429999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.711000</v>
+        <v>-365.71100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>31639.430562</v>
+        <v>31639.430562000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.788731</v>
+        <v>8.7887310000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.451000</v>
+        <v>-578.45100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>31650.211101</v>
+        <v>31650.211101000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.791725</v>
+        <v>8.7917249999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.650000</v>
+        <v>1412.65</v>
       </c>
       <c r="BV2" s="1">
-        <v>-805.977000</v>
+        <v>-805.97699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>31660.921247</v>
+        <v>31660.921246999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.794700</v>
+        <v>8.7947000000000006</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1576.100000</v>
+        <v>1576.1</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1043.540000</v>
+        <v>-1043.54</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>31671.978032</v>
+        <v>31671.978031999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.797772</v>
+        <v>8.7977720000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.950000</v>
+        <v>1987.95</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1598.650000</v>
+        <v>-1598.65</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>31503.293118</v>
+        <v>31503.293118000001</v>
       </c>
       <c r="B3" s="1">
-        <v>8.750915</v>
+        <v>8.7509150000000009</v>
       </c>
       <c r="C3" s="1">
-        <v>906.486000</v>
+        <v>906.48599999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.417000</v>
+        <v>-197.417</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>31513.961074</v>
+        <v>31513.961073999999</v>
       </c>
       <c r="G3" s="1">
-        <v>8.753878</v>
+        <v>8.7538780000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>923.444000</v>
+        <v>923.44399999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.569000</v>
+        <v>-167.56899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>31524.409298</v>
+        <v>31524.409297999999</v>
       </c>
       <c r="L3" s="1">
-        <v>8.756780</v>
+        <v>8.7567799999999991</v>
       </c>
       <c r="M3" s="1">
-        <v>945.718000</v>
+        <v>945.71799999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.031000</v>
+        <v>-120.03100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>31534.890758</v>
+        <v>31534.890758000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.759692</v>
+        <v>8.7596919999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>952.490000</v>
+        <v>952.49</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.222000</v>
+        <v>-104.22199999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>31545.758598</v>
       </c>
       <c r="V3" s="1">
-        <v>8.762711</v>
+        <v>8.7627109999999995</v>
       </c>
       <c r="W3" s="1">
-        <v>959.031000</v>
+        <v>959.03099999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.293300</v>
+        <v>-90.293300000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>31556.051577</v>
+        <v>31556.051576999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.765570</v>
+        <v>8.7655700000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.018000</v>
+        <v>966.01800000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.655400</v>
+        <v>-80.6554</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>31566.428876</v>
+        <v>31566.428876000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.768452</v>
+        <v>8.7684519999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.070000</v>
+        <v>971.07</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.108900</v>
+        <v>-80.108900000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>31576.577023</v>
+        <v>31576.577023000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.771271</v>
+        <v>8.7712710000000005</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.926000</v>
+        <v>978.92600000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.758900</v>
+        <v>-87.758899999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>31586.861568</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.774128</v>
+        <v>8.7741279999999993</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.088000</v>
+        <v>988.08799999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.642000</v>
+        <v>-102.642</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>31597.507730</v>
+        <v>31597.507730000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.777085</v>
+        <v>8.7770849999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.334000</v>
+        <v>999.33399999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.218000</v>
+        <v>-124.218</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>31607.898890</v>
+        <v>31607.89889</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.779972</v>
+        <v>8.7799720000000008</v>
       </c>
       <c r="BA3" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.011000</v>
+        <v>-143.011</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>31618.482203</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.782912</v>
+        <v>8.7829119999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.360000</v>
+        <v>-228.36</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>31629.146537</v>
+        <v>31629.146537000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.785874</v>
+        <v>8.7858739999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.723000</v>
+        <v>-365.72300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>31639.871498</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.788853</v>
+        <v>8.7888529999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.511000</v>
+        <v>-578.51099999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>31650.654028</v>
+        <v>31650.654028000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.791848</v>
+        <v>8.7918479999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.640000</v>
+        <v>1412.64</v>
       </c>
       <c r="BV3" s="1">
-        <v>-805.861000</v>
+        <v>-805.86099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>31661.395084</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.794832</v>
+        <v>8.7948319999999995</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1576.210000</v>
+        <v>1576.21</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1043.580000</v>
+        <v>-1043.58</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>31672.851486</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.798014</v>
+        <v>8.7980140000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1988.320000</v>
+        <v>1988.32</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1600.220000</v>
+        <v>-1600.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>31503.624944</v>
+        <v>31503.624943999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.751007</v>
+        <v>8.7510069999999995</v>
       </c>
       <c r="C4" s="1">
-        <v>906.472000</v>
+        <v>906.47199999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.413000</v>
+        <v>-197.41300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>31514.305792</v>
+        <v>31514.305791999999</v>
       </c>
       <c r="G4" s="1">
-        <v>8.753974</v>
+        <v>8.7539739999999995</v>
       </c>
       <c r="H4" s="1">
-        <v>923.683000</v>
+        <v>923.68299999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.363000</v>
+        <v>-167.363</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>31525.064018</v>
+        <v>31525.064018000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.756962</v>
+        <v>8.7569619999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>945.793000</v>
+        <v>945.79300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.039000</v>
+        <v>-120.039</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>31535.538564</v>
+        <v>31535.538563999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.759872</v>
+        <v>8.7598719999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>952.521000</v>
+        <v>952.52099999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.302000</v>
+        <v>-104.30200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>31546.134070</v>
+        <v>31546.13407</v>
       </c>
       <c r="V4" s="1">
-        <v>8.762815</v>
+        <v>8.7628149999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>958.988000</v>
+        <v>958.98800000000006</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.288400</v>
+        <v>-90.288399999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>31556.230633</v>
+        <v>31556.230632999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.765620</v>
+        <v>8.7656200000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.202000</v>
+        <v>966.202</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.644500</v>
+        <v>-80.644499999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>31566.773596</v>
+        <v>31566.773595999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.768548</v>
+        <v>8.7685479999999991</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.062000</v>
+        <v>971.06200000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.075800</v>
+        <v>-80.075800000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>31576.922733</v>
+        <v>31576.922732999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.771367</v>
+        <v>8.7713669999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.945000</v>
+        <v>978.94500000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.745800</v>
+        <v>-87.745800000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>31587.221169</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.774228</v>
+        <v>8.7742280000000008</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.071000</v>
+        <v>988.07100000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.620000</v>
+        <v>-102.62</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>31597.929299</v>
+        <v>31597.929298999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.777203</v>
+        <v>8.7772030000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.353000</v>
+        <v>999.35299999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.211000</v>
+        <v>-124.211</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>31608.192020</v>
+        <v>31608.192019999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.780053</v>
+        <v>8.7800530000000006</v>
       </c>
       <c r="BA4" s="1">
-        <v>1008.920000</v>
+        <v>1008.92</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.001000</v>
+        <v>-143.001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>31618.808886</v>
+        <v>31618.808885999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.783002</v>
+        <v>8.7830019999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.840000</v>
+        <v>1053.8399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.346000</v>
+        <v>-228.346</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>31629.503158</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.785973</v>
+        <v>8.7859730000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.751000</v>
+        <v>-365.75099999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>31640.287146</v>
+        <v>31640.287145999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.788969</v>
+        <v>8.7889689999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.532000</v>
+        <v>-578.53200000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>31651.087572</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.791969</v>
+        <v>8.7919689999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.650000</v>
+        <v>1412.65</v>
       </c>
       <c r="BV4" s="1">
-        <v>-805.907000</v>
+        <v>-805.90700000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>31661.825421</v>
+        <v>31661.825421000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.794952</v>
+        <v>8.7949520000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1576.160000</v>
+        <v>1576.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1043.550000</v>
+        <v>-1043.55</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>31673.071216</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.798075</v>
+        <v>8.7980750000000008</v>
       </c>
       <c r="CE4" s="1">
-        <v>1989.840000</v>
+        <v>1989.84</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1599.840000</v>
+        <v>-1599.84</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>31503.967714</v>
+        <v>31503.967713999999</v>
       </c>
       <c r="B5" s="1">
-        <v>8.751102</v>
+        <v>8.7511019999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>906.454000</v>
+        <v>906.45399999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.534000</v>
+        <v>-197.53399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>31514.959023</v>
+        <v>31514.959022999999</v>
       </c>
       <c r="G5" s="1">
-        <v>8.754155</v>
+        <v>8.7541550000000008</v>
       </c>
       <c r="H5" s="1">
-        <v>924.043000</v>
+        <v>924.04300000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.294000</v>
+        <v>-167.29400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>31525.444486</v>
       </c>
       <c r="L5" s="1">
-        <v>8.757068</v>
+        <v>8.7570680000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>945.632000</v>
+        <v>945.63199999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.101000</v>
+        <v>-120.101</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>31535.936360</v>
+        <v>31535.93636</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.759982</v>
+        <v>8.7599820000000008</v>
       </c>
       <c r="R5" s="1">
-        <v>952.508000</v>
+        <v>952.50800000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.266000</v>
+        <v>-104.26600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>31546.476806</v>
+        <v>31546.476805999999</v>
       </c>
       <c r="V5" s="1">
-        <v>8.762910</v>
+        <v>8.7629099999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>958.909000</v>
+        <v>958.90899999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.327700</v>
+        <v>-90.327699999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>31556.577863</v>
+        <v>31556.577862999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.765716</v>
+        <v>8.7657159999999994</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.117000</v>
+        <v>966.11699999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.588500</v>
+        <v>-80.588499999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>31567.115835</v>
+        <v>31567.115835000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.768643</v>
+        <v>8.7686430000000009</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.103000</v>
+        <v>971.10299999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.071200</v>
+        <v>-80.071200000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>31577.346845</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.771485</v>
+        <v>8.7714850000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.973000</v>
+        <v>978.97299999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.732200</v>
+        <v>-87.732200000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>31587.649713</v>
+        <v>31587.649712999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.774347</v>
+        <v>8.7743470000000006</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.080000</v>
+        <v>988.08</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.667000</v>
+        <v>-102.667</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>31598.237811</v>
+        <v>31598.237810999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.777288</v>
+        <v>8.7772880000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.352000</v>
+        <v>999.35199999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.213000</v>
+        <v>-124.21299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>31608.552644</v>
+        <v>31608.552643999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.780154</v>
+        <v>8.7801539999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1008.890000</v>
+        <v>1008.89</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.995000</v>
+        <v>-142.995</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>31619.168523</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.783102</v>
+        <v>8.7831019999999995</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.362000</v>
+        <v>-228.36199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>31629.879591</v>
+        <v>31629.879591000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.786078</v>
+        <v>8.7860779999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.716000</v>
+        <v>-365.71600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>31641.103065</v>
+        <v>31641.103064999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.789195</v>
+        <v>8.7891949999999994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.720000</v>
+        <v>1264.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.530000</v>
+        <v>-578.53</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>31651.523019</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.792090</v>
+        <v>8.79209</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.700000</v>
+        <v>1412.7</v>
       </c>
       <c r="BV5" s="1">
-        <v>-805.858000</v>
+        <v>-805.85799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>31662.248045</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.795069</v>
+        <v>8.7950689999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1043.480000</v>
+        <v>-1043.48</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>31673.609871</v>
+        <v>31673.609871000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.798225</v>
+        <v>8.7982250000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>1987.950000</v>
+        <v>1987.95</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1597.970000</v>
+        <v>-1597.97</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>31504.640254</v>
+        <v>31504.640254000002</v>
       </c>
       <c r="B6" s="1">
-        <v>8.751289</v>
+        <v>8.7512889999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.688000</v>
+        <v>906.68799999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.558000</v>
+        <v>-197.55799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>31515.343461</v>
       </c>
       <c r="G6" s="1">
-        <v>8.754262</v>
+        <v>8.7542620000000007</v>
       </c>
       <c r="H6" s="1">
-        <v>923.630000</v>
+        <v>923.63</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.139000</v>
+        <v>-167.13900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>31525.790444</v>
+        <v>31525.790443999998</v>
       </c>
       <c r="L6" s="1">
-        <v>8.757164</v>
+        <v>8.7571639999999995</v>
       </c>
       <c r="M6" s="1">
-        <v>945.764000</v>
+        <v>945.76400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.986000</v>
+        <v>-119.986</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>31536.283561</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.760079</v>
+        <v>8.7600789999999993</v>
       </c>
       <c r="R6" s="1">
-        <v>952.462000</v>
+        <v>952.46199999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.289000</v>
+        <v>-104.289</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>31546.825989</v>
+        <v>31546.825989000001</v>
       </c>
       <c r="V6" s="1">
         <v>8.763007</v>
       </c>
       <c r="W6" s="1">
-        <v>959.046000</v>
+        <v>959.04600000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.356200</v>
+        <v>-90.356200000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>31557.002936</v>
+        <v>31557.002936000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.765834</v>
+        <v>8.7658339999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.065000</v>
+        <v>966.06500000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.625000</v>
+        <v>-80.625</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>31567.536721</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.768760</v>
+        <v>8.7687600000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.083000</v>
+        <v>971.08299999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.103400</v>
+        <v>-80.103399999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>31577.626092</v>
+        <v>31577.626091999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.771563</v>
+        <v>8.7715630000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.948000</v>
+        <v>978.94799999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.754600</v>
+        <v>-87.754599999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>31587.942847</v>
+        <v>31587.942846999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.774429</v>
+        <v>8.7744289999999996</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.076000</v>
+        <v>988.07600000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.643000</v>
+        <v>-102.643</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>31598.602368</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.777390</v>
+        <v>8.7773900000000005</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.340000</v>
+        <v>999.34</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.212000</v>
+        <v>-124.212</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>31608.910723</v>
+        <v>31608.910723000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.780253</v>
+        <v>8.7802530000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1008.890000</v>
+        <v>1008.89</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.022000</v>
+        <v>-143.02199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>31619.529605</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.783203</v>
+        <v>8.7832030000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.333000</v>
+        <v>-228.333</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>31630.630068</v>
+        <v>31630.630067999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.786286</v>
+        <v>8.7862860000000005</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.100000</v>
+        <v>1133.0999999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.742000</v>
+        <v>-365.74200000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>31641.523177</v>
+        <v>31641.523176999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.789312</v>
+        <v>8.7893120000000007</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.517000</v>
+        <v>-578.51700000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>31651.928746</v>
+        <v>31651.928746000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.792202</v>
+        <v>8.7922019999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.770000</v>
+        <v>1412.77</v>
       </c>
       <c r="BV6" s="1">
-        <v>-805.794000</v>
+        <v>-805.79399999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>31662.669117</v>
+        <v>31662.669117000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.795186</v>
+        <v>8.7951859999999993</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1043.580000</v>
+        <v>-1043.58</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>31674.455084</v>
+        <v>31674.455084000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.798460</v>
+        <v>8.7984600000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>1989.920000</v>
+        <v>1989.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1599.280000</v>
+        <v>-1599.28</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>31504.996877</v>
+        <v>31504.996877000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.751388</v>
+        <v>8.7513880000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>906.562000</v>
+        <v>906.56200000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.409000</v>
+        <v>-197.40899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>31515.687646</v>
+        <v>31515.687645999998</v>
       </c>
       <c r="G7" s="1">
-        <v>8.754358</v>
+        <v>8.7543579999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>923.125000</v>
+        <v>923.125</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.202000</v>
+        <v>-167.202</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>31526.137889</v>
+        <v>31526.137889000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.757261</v>
+        <v>8.7572609999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>945.893000</v>
+        <v>945.89300000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.011000</v>
+        <v>-120.011</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>31536.633731</v>
+        <v>31536.633731000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.760176</v>
+        <v>8.7601759999999995</v>
       </c>
       <c r="R7" s="1">
-        <v>952.503000</v>
+        <v>952.50300000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.251000</v>
+        <v>-104.251</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>31547.251092</v>
+        <v>31547.251091999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.763125</v>
+        <v>8.7631250000000005</v>
       </c>
       <c r="W7" s="1">
-        <v>958.945000</v>
+        <v>958.94500000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.328300</v>
+        <v>-90.328299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>31557.274247</v>
+        <v>31557.274247000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.765910</v>
+        <v>8.7659099999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.184000</v>
+        <v>966.18399999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.634600</v>
+        <v>-80.634600000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>31567.811227</v>
+        <v>31567.811226999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.768836</v>
+        <v>8.7688360000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.068000</v>
+        <v>971.06799999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.111000</v>
+        <v>-80.111000000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>31577.975244</v>
+        <v>31577.975244000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.771660</v>
+        <v>8.7716600000000007</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.013000</v>
+        <v>979.01300000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.758800</v>
+        <v>-87.758799999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>31588.300973</v>
+        <v>31588.300973000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.774528</v>
+        <v>8.7745280000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.071000</v>
+        <v>988.07100000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.641000</v>
+        <v>-102.64100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>31598.969904</v>
+        <v>31598.969904000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.777492</v>
+        <v>8.7774920000000005</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.368000</v>
+        <v>999.36800000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.210000</v>
+        <v>-124.21</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>31609.627939</v>
+        <v>31609.627939000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.780452</v>
+        <v>8.7804520000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.021000</v>
+        <v>-143.02099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>31620.251748</v>
+        <v>31620.251747999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.783403</v>
+        <v>8.7834029999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.341000</v>
+        <v>-228.34100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>31631.005510</v>
+        <v>31631.005509999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.786390</v>
+        <v>8.7863900000000008</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.040000</v>
+        <v>1133.04</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.729000</v>
+        <v>-365.72899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>31641.915015</v>
+        <v>31641.915014999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.789421</v>
+        <v>8.7894210000000008</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.498000</v>
+        <v>-578.49800000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>31652.362250</v>
+        <v>31652.362249999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.792323</v>
+        <v>8.7923229999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.830000</v>
+        <v>1412.83</v>
       </c>
       <c r="BV7" s="1">
-        <v>-805.744000</v>
+        <v>-805.74400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>31663.427499</v>
+        <v>31663.427499000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.795397</v>
+        <v>8.7953969999999995</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.110000</v>
+        <v>1576.11</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1043.720000</v>
+        <v>-1043.72</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>31674.687684</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.798524</v>
+        <v>8.7985240000000005</v>
       </c>
       <c r="CE7" s="1">
-        <v>1989.460000</v>
+        <v>1989.46</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1599.270000</v>
+        <v>-1599.27</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>31505.336140</v>
+        <v>31505.336139999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.751482</v>
+        <v>8.7514819999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>906.406000</v>
+        <v>906.40599999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.520000</v>
+        <v>-197.52</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>31516.031902</v>
+        <v>31516.031901999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8.754453</v>
+        <v>8.7544529999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>923.675000</v>
+        <v>923.67499999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.255000</v>
+        <v>-167.255</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>31526.555984</v>
+        <v>31526.555983999999</v>
       </c>
       <c r="L8" s="1">
         <v>8.757377</v>
       </c>
       <c r="M8" s="1">
-        <v>945.532000</v>
+        <v>945.53200000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.008000</v>
+        <v>-120.008</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>31537.053315</v>
+        <v>31537.053315000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.760293</v>
+        <v>8.7602930000000008</v>
       </c>
       <c r="R8" s="1">
-        <v>952.495000</v>
+        <v>952.495</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.235000</v>
+        <v>-104.235</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>31547.529347</v>
       </c>
       <c r="V8" s="1">
-        <v>8.763203</v>
+        <v>8.7632030000000007</v>
       </c>
       <c r="W8" s="1">
-        <v>958.981000</v>
+        <v>958.98099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.367500</v>
+        <v>-90.367500000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>31557.622937</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.766006</v>
+        <v>8.7660060000000009</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.163000</v>
+        <v>966.16300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.613700</v>
+        <v>-80.613699999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>31568.153477</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.768932</v>
+        <v>8.7689319999999995</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.068000</v>
+        <v>971.06799999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.060000</v>
+        <v>-80.06</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>31578.320956</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.771756</v>
+        <v>8.7717559999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.941000</v>
+        <v>978.94100000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.750200</v>
+        <v>-87.750200000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>31588.971086</v>
+        <v>31588.971086000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.774714</v>
+        <v>8.7747139999999995</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.042000</v>
+        <v>988.04200000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.630000</v>
+        <v>-102.63</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>31599.701503</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.777695</v>
+        <v>8.7776949999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>31609.985586</v>
+        <v>31609.985585999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.780552</v>
+        <v>8.7805520000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.009000</v>
+        <v>-143.00899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>31620.614323</v>
+        <v>31620.614323000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.783504</v>
+        <v>8.7835040000000006</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.334000</v>
+        <v>-228.334</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>31631.382006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.786495</v>
+        <v>8.7864950000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.721000</v>
+        <v>-365.721</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>31642.647607</v>
+        <v>31642.647606999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.789624</v>
+        <v>8.7896239999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.498000</v>
+        <v>-578.49800000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>31653.100330</v>
+        <v>31653.100330000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.792528</v>
+        <v>8.7925280000000008</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.840000</v>
+        <v>1412.84</v>
       </c>
       <c r="BV8" s="1">
-        <v>-805.758000</v>
+        <v>-805.75800000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>31663.540092</v>
+        <v>31663.540091999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.795428</v>
+        <v>8.7954279999999994</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1043.680000</v>
+        <v>-1043.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>31675.209007</v>
+        <v>31675.209007000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.798669</v>
+        <v>8.7986690000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>1988.820000</v>
+        <v>1988.82</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1598.300000</v>
+        <v>-1598.3</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>31506.027563</v>
       </c>
       <c r="B9" s="1">
-        <v>8.751674</v>
+        <v>8.7516739999999995</v>
       </c>
       <c r="C9" s="1">
-        <v>906.507000</v>
+        <v>906.50699999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.349000</v>
+        <v>-197.34899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>31516.455981</v>
+        <v>31516.455980999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.754571</v>
+        <v>8.7545710000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>923.428000</v>
+        <v>923.428</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.862000</v>
+        <v>-166.86199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>31526.829775</v>
+        <v>31526.829774999998</v>
       </c>
       <c r="L9" s="1">
-        <v>8.757453</v>
+        <v>8.7574529999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>945.905000</v>
+        <v>945.90499999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.018000</v>
+        <v>-120.018</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>31537.336033</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.760371</v>
+        <v>8.7603709999999992</v>
       </c>
       <c r="R9" s="1">
-        <v>952.548000</v>
+        <v>952.548</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.260000</v>
+        <v>-104.26</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>31547.873541</v>
+        <v>31547.873541000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.763298</v>
+        <v>8.7632980000000007</v>
       </c>
       <c r="W9" s="1">
-        <v>958.913000</v>
+        <v>958.91300000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.359000</v>
+        <v>-90.358999999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>31557.972582</v>
+        <v>31557.972581999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.766103</v>
+        <v>8.7661029999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.126000</v>
+        <v>966.12599999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.655200</v>
+        <v>-80.655199999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>31568.493721</v>
+        <v>31568.493720999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.769026</v>
+        <v>8.7690260000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.116000</v>
+        <v>971.11599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.103700</v>
+        <v>-80.103700000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>31579.021338</v>
+        <v>31579.021337999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.771950</v>
+        <v>8.7719500000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.929000</v>
+        <v>978.92899999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.760100</v>
+        <v>-87.760099999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>31589.382277</v>
+        <v>31589.382277000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.774828</v>
+        <v>8.7748279999999994</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.069000</v>
+        <v>988.06899999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.652000</v>
+        <v>-102.652</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>31600.084041</v>
+        <v>31600.084040999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.777801</v>
+        <v>8.7778010000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.351000</v>
+        <v>999.351</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.210000</v>
+        <v>-124.21</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>31610.345185</v>
+        <v>31610.345184999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.780651</v>
+        <v>8.7806510000000006</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.920000</v>
+        <v>1008.92</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.000000</v>
+        <v>-143</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>31620.975908</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.783604</v>
+        <v>8.7836040000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.333000</v>
+        <v>-228.333</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>31632.064220</v>
+        <v>31632.06422</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.786685</v>
+        <v>8.7866850000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.060000</v>
+        <v>1133.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.764000</v>
+        <v>-365.76400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>31642.756726</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.789655</v>
+        <v>8.7896549999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.535000</v>
+        <v>-578.53499999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>31653.236728</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.792566</v>
+        <v>8.7925660000000008</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.920000</v>
+        <v>1412.92</v>
       </c>
       <c r="BV9" s="1">
-        <v>-805.759000</v>
+        <v>-805.75900000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>31663.975615</v>
+        <v>31663.975614999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.795549</v>
+        <v>8.7955489999999994</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1576.140000</v>
+        <v>1576.14</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1043.630000</v>
+        <v>-1043.6300000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>31675.724316</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.798812</v>
+        <v>8.7988119999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1989.360000</v>
+        <v>1989.36</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1598.520000</v>
+        <v>-1598.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>31506.368316</v>
       </c>
       <c r="B10" s="1">
-        <v>8.751769</v>
+        <v>8.7517689999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>906.606000</v>
+        <v>906.60599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.489000</v>
+        <v>-197.489</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>31516.745117</v>
+        <v>31516.745116999999</v>
       </c>
       <c r="G10" s="1">
-        <v>8.754651</v>
+        <v>8.7546510000000008</v>
       </c>
       <c r="H10" s="1">
-        <v>923.236000</v>
+        <v>923.23599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.278000</v>
+        <v>-167.27799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>31527.175022</v>
+        <v>31527.175021999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.757549</v>
+        <v>8.7575489999999991</v>
       </c>
       <c r="M10" s="1">
-        <v>945.627000</v>
+        <v>945.62699999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.799000</v>
+        <v>-119.79900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>31537.681782</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.760467</v>
+        <v>8.7604670000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>952.555000</v>
+        <v>952.55499999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.268000</v>
+        <v>-104.268</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>31548.215283</v>
+        <v>31548.215283000001</v>
       </c>
       <c r="V10" s="1">
-        <v>8.763393</v>
+        <v>8.7633930000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>958.971000</v>
+        <v>958.971</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.358300</v>
+        <v>-90.3583</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>31558.667974</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.766297</v>
+        <v>8.7662969999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.155000</v>
+        <v>966.15499999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.612800</v>
+        <v>-80.612799999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>31569.184648</v>
+        <v>31569.184647999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.769218</v>
+        <v>8.7692180000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.076000</v>
+        <v>971.07600000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.083800</v>
+        <v>-80.083799999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>31579.369118</v>
+        <v>31579.369117999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.772047</v>
+        <v>8.7720470000000006</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.958000</v>
+        <v>978.95799999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.782500</v>
+        <v>-87.782499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>31589.770108</v>
+        <v>31589.770108000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.774936</v>
+        <v>8.7749360000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.069000</v>
+        <v>988.06899999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.675000</v>
+        <v>-102.675</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>31600.445998</v>
+        <v>31600.445997999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.777902</v>
+        <v>8.7779019999999992</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.342000</v>
+        <v>999.34199999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.206000</v>
+        <v>-124.206</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>31611.008810</v>
+        <v>31611.008809999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.780836</v>
+        <v>8.7808360000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.987000</v>
+        <v>-142.98699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>31621.637570</v>
+        <v>31621.637569999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.783788</v>
+        <v>8.7837879999999995</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.338000</v>
+        <v>-228.33799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>31632.505909</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.786807</v>
+        <v>8.7868069999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.750000</v>
+        <v>-365.75</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>31643.159478</v>
+        <v>31643.159478000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.789767</v>
+        <v>8.7897669999999994</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.561000</v>
+        <v>-578.56100000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>31653.645709</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.792679</v>
+        <v>8.7926789999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-805.772000</v>
+        <v>-805.77200000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>31664.436362</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.795677</v>
+        <v>8.7956769999999995</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1576.040000</v>
+        <v>1576.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1043.490000</v>
+        <v>-1043.49</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>31676.275372</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.798965</v>
+        <v>8.7989650000000008</v>
       </c>
       <c r="CE10" s="1">
-        <v>1989.800000</v>
+        <v>1989.8</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1599.320000</v>
+        <v>-1599.32</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>31506.710554</v>
+        <v>31506.710554000001</v>
       </c>
       <c r="B11" s="1">
-        <v>8.751864</v>
+        <v>8.7518639999999994</v>
       </c>
       <c r="C11" s="1">
-        <v>906.553000</v>
+        <v>906.553</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.340000</v>
+        <v>-197.34</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>31517.089836</v>
+        <v>31517.089835999999</v>
       </c>
       <c r="G11" s="1">
-        <v>8.754747</v>
+        <v>8.7547470000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>923.299000</v>
+        <v>923.29899999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.187000</v>
+        <v>-168.18700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>31527.520730</v>
+        <v>31527.52073</v>
       </c>
       <c r="L11" s="1">
-        <v>8.757645</v>
+        <v>8.7576450000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>945.849000</v>
+        <v>945.84900000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.811000</v>
+        <v>-119.81100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>31538.037377</v>
+        <v>31538.037377000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.760566</v>
+        <v>8.7605660000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>952.432000</v>
+        <v>952.43200000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.292000</v>
+        <v>-104.292</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>31548.902243</v>
       </c>
       <c r="V11" s="1">
-        <v>8.763584</v>
+        <v>8.7635839999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>958.918000</v>
+        <v>958.91800000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.356000</v>
+        <v>-90.355999999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>31559.016661</v>
+        <v>31559.016661000001</v>
       </c>
       <c r="AA11" s="1">
         <v>8.766394</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.157000</v>
+        <v>966.15700000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.603100</v>
+        <v>-80.603099999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>31569.526887</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.769313</v>
+        <v>8.7693130000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.118000</v>
+        <v>971.11800000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.119000</v>
+        <v>-80.119</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>31579.716237</v>
+        <v>31579.716237000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.772143</v>
+        <v>8.7721429999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.941000</v>
+        <v>978.94100000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.748500</v>
+        <v>-87.748500000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>31590.440205</v>
+        <v>31590.440204999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.775122</v>
+        <v>8.7751219999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.083000</v>
+        <v>988.08299999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>31601.127997</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.778091</v>
+        <v>8.7780909999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.366000</v>
+        <v>999.36599999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.197000</v>
+        <v>-124.197</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>31611.422992</v>
@@ -2944,330 +3360,330 @@
         <v>8.780951</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.022000</v>
+        <v>-143.02199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>31622.224338</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.783951</v>
+        <v>8.7839510000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.349000</v>
+        <v>-228.34899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>31632.883905</v>
+        <v>31632.883904999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.786912</v>
+        <v>8.7869119999999992</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.080000</v>
+        <v>1133.08</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.731000</v>
+        <v>-365.73099999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>31643.553798</v>
+        <v>31643.553798000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.789876</v>
+        <v>8.7898759999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.530000</v>
+        <v>-578.53</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>31654.077911</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.792799</v>
+        <v>8.7927990000000005</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.010000</v>
+        <v>1413.01</v>
       </c>
       <c r="BV11" s="1">
-        <v>-805.711000</v>
+        <v>-805.71100000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>31664.883258</v>
+        <v>31664.883258000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.795801</v>
+        <v>8.7958010000000009</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1576.170000</v>
+        <v>1576.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1043.690000</v>
+        <v>-1043.69</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>31676.804107</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.799112</v>
+        <v>8.7991119999999992</v>
       </c>
       <c r="CE11" s="1">
-        <v>1988.930000</v>
+        <v>1988.93</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1597.990000</v>
+        <v>-1597.99</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>31507.057293</v>
+        <v>31507.057293000002</v>
       </c>
       <c r="B12" s="1">
-        <v>8.751960</v>
+        <v>8.7519600000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>906.658000</v>
+        <v>906.65800000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.350000</v>
+        <v>-197.35</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>31517.429632</v>
+        <v>31517.429631999999</v>
       </c>
       <c r="G12" s="1">
         <v>8.754842</v>
       </c>
       <c r="H12" s="1">
-        <v>923.517000</v>
+        <v>923.51700000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.308000</v>
+        <v>-167.30799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>31528.214642</v>
+        <v>31528.214641999999</v>
       </c>
       <c r="L12" s="1">
-        <v>8.757837</v>
+        <v>8.7578370000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>945.819000</v>
+        <v>945.81899999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.824000</v>
+        <v>-119.824</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>31538.725329</v>
+        <v>31538.725329000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.760757</v>
+        <v>8.7607569999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>952.436000</v>
+        <v>952.43600000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.259000</v>
+        <v>-104.259</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>31549.245508</v>
       </c>
       <c r="V12" s="1">
-        <v>8.763679</v>
+        <v>8.7636789999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>959.063000</v>
+        <v>959.06299999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.348300</v>
+        <v>-90.348299999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>31559.364852</v>
+        <v>31559.364851999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.766490</v>
+        <v>8.7664899999999992</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.179000</v>
+        <v>966.17899999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.631000</v>
+        <v>-80.631</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>31569.873592</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.769409</v>
+        <v>8.7694089999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.098000</v>
+        <v>971.09799999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.062000</v>
+        <v>-80.061999999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>31580.382329</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.772328</v>
+        <v>8.7723279999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.937000</v>
+        <v>978.93700000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.745500</v>
+        <v>-87.745500000000007</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>31590.852907</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.775237</v>
+        <v>8.7752370000000006</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.069000</v>
+        <v>988.06899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>31601.568973</v>
+        <v>31601.568973000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.778214</v>
+        <v>8.7782140000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.365000</v>
+        <v>999.36500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.202000</v>
+        <v>-124.202</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>31611.808380</v>
+        <v>31611.808379999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.781058</v>
+        <v>8.7810579999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.032000</v>
+        <v>-143.03200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>31622.453986</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.784015</v>
+        <v>8.7840150000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.360000</v>
+        <v>-228.36</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>31633.257349</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.787016</v>
+        <v>8.7870159999999995</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.739000</v>
+        <v>-365.73899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>31643.975925</v>
+        <v>31643.975924999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.789993</v>
+        <v>8.7899930000000008</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.540000</v>
+        <v>-578.54</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>31654.501000</v>
+        <v>31654.501</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.792917</v>
+        <v>8.7929169999999992</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.090000</v>
+        <v>1413.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-805.741000</v>
+        <v>-805.74099999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>31665.340569</v>
@@ -3276,1889 +3692,1889 @@
         <v>8.795928</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1576.140000</v>
+        <v>1576.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1043.760000</v>
+        <v>-1043.76</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>31677.321433</v>
+        <v>31677.321433000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.799256</v>
+        <v>8.7992559999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.820000</v>
+        <v>1987.82</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1600.010000</v>
+        <v>-1600.01</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>31507.742729</v>
+        <v>31507.742729000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.752151</v>
+        <v>8.7521509999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>906.492000</v>
+        <v>906.49199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.520000</v>
+        <v>-197.52</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>31518.120058</v>
       </c>
       <c r="G13" s="1">
-        <v>8.755033</v>
+        <v>8.7550329999999992</v>
       </c>
       <c r="H13" s="1">
-        <v>923.508000</v>
+        <v>923.50800000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.876000</v>
+        <v>-166.876</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>31528.562799</v>
+        <v>31528.562798999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.757934</v>
+        <v>8.7579340000000006</v>
       </c>
       <c r="M13" s="1">
-        <v>945.973000</v>
+        <v>945.97299999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.774000</v>
+        <v>-119.774</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>31539.075505</v>
+        <v>31539.075505000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.760854</v>
+        <v>8.7608540000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>952.402000</v>
+        <v>952.40200000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.252000</v>
+        <v>-104.252</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>31549.591185</v>
+        <v>31549.591185000001</v>
       </c>
       <c r="V13" s="1">
-        <v>8.763775</v>
+        <v>8.7637750000000008</v>
       </c>
       <c r="W13" s="1">
-        <v>958.965000</v>
+        <v>958.96500000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.343000</v>
+        <v>-90.343000000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>31560.030028</v>
+        <v>31560.030028000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.766675</v>
+        <v>8.7666749999999993</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.152000</v>
+        <v>966.15200000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.602700</v>
+        <v>-80.602699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>31570.538230</v>
+        <v>31570.538229999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.769594</v>
+        <v>8.7695939999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.062000</v>
+        <v>971.06200000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.114400</v>
+        <v>-80.114400000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>31580.763256</v>
+        <v>31580.763255999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.772434</v>
+        <v>8.7724340000000005</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.969000</v>
+        <v>978.96900000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.739200</v>
+        <v>-87.739199999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>31591.232811</v>
+        <v>31591.232811000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.775342</v>
+        <v>8.7753420000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.088000</v>
+        <v>988.08799999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.658000</v>
+        <v>-102.658</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>31601.934493</v>
+        <v>31601.934493000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.778315</v>
+        <v>8.7783149999999992</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.371000</v>
+        <v>999.37099999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.207000</v>
+        <v>-124.20699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>31612.169967</v>
+        <v>31612.169967000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.781158</v>
+        <v>8.7811579999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.000000</v>
+        <v>-143</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>31622.871158</v>
+        <v>31622.871158000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.784131</v>
+        <v>8.7841310000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.326000</v>
+        <v>-228.32599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>31633.675506</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.787132</v>
+        <v>8.7871319999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.739000</v>
+        <v>-365.73899999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>31644.371204</v>
+        <v>31644.371203999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.790103</v>
+        <v>8.7901030000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.552000</v>
+        <v>-578.55200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>31654.908751</v>
+        <v>31654.908750999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.793030</v>
+        <v>8.7930299999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.110000</v>
+        <v>1413.11</v>
       </c>
       <c r="BV13" s="1">
-        <v>-805.723000</v>
+        <v>-805.72299999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>31665.786471</v>
+        <v>31665.786470999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.796052</v>
+        <v>8.7960519999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1043.670000</v>
+        <v>-1043.67</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>31677.863064</v>
+        <v>31677.863064000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.799406</v>
+        <v>8.7994059999999994</v>
       </c>
       <c r="CE13" s="1">
-        <v>1989.570000</v>
+        <v>1989.57</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1599.500000</v>
+        <v>-1599.5</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>31508.084472</v>
+        <v>31508.084471999999</v>
       </c>
       <c r="B14" s="1">
-        <v>8.752246</v>
+        <v>8.7522459999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>906.627000</v>
+        <v>906.62699999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.579000</v>
+        <v>-197.57900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>31518.467722</v>
+        <v>31518.467722000001</v>
       </c>
       <c r="G14" s="1">
-        <v>8.755130</v>
+        <v>8.7551299999999994</v>
       </c>
       <c r="H14" s="1">
-        <v>923.405000</v>
+        <v>923.40499999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.178000</v>
+        <v>-167.178</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>31528.904576</v>
+        <v>31528.904576000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.758029</v>
+        <v>8.7580290000000005</v>
       </c>
       <c r="M14" s="1">
-        <v>945.850000</v>
+        <v>945.85</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.886000</v>
+        <v>-119.886</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>31539.727246</v>
+        <v>31539.727245999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.761035</v>
+        <v>8.7610349999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>952.492000</v>
+        <v>952.49199999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.265000</v>
+        <v>-104.265</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>31550.241937</v>
+        <v>31550.241936999999</v>
       </c>
       <c r="V14" s="1">
-        <v>8.763956</v>
+        <v>8.7639560000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>958.912000</v>
+        <v>958.91200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.364800</v>
+        <v>-90.364800000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>31560.411907</v>
+        <v>31560.411907000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.766781</v>
+        <v>8.7667809999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.164000</v>
+        <v>966.16399999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.638700</v>
+        <v>-80.6387</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>31570.910256</v>
+        <v>31570.910255999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.769697</v>
+        <v>8.7696970000000007</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.081000</v>
+        <v>971.08100000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.079600</v>
+        <v>-80.079599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>31581.113462</v>
+        <v>31581.113462000001</v>
       </c>
       <c r="AK14" s="1">
         <v>8.772532</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.938000</v>
+        <v>978.93799999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.754600</v>
+        <v>-87.754599999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>31591.596380</v>
+        <v>31591.596379999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.775443</v>
+        <v>8.7754429999999992</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.084000</v>
+        <v>988.08399999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.648000</v>
+        <v>-102.648</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>31602.300372</v>
+        <v>31602.300372000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.778417</v>
+        <v>8.7784169999999992</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.361000</v>
+        <v>999.36099999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.195000</v>
+        <v>-124.19499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>31612.596494</v>
+        <v>31612.596494000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.781277</v>
+        <v>8.7812769999999993</v>
       </c>
       <c r="BA14" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.031000</v>
+        <v>-143.03100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>31623.179634</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.784217</v>
+        <v>8.7842169999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.319000</v>
+        <v>-228.31899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>31634.035075</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.787232</v>
+        <v>8.7872319999999995</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.774000</v>
+        <v>-365.774</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>31644.794789</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.790221</v>
+        <v>8.7902210000000007</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.564000</v>
+        <v>-578.56399999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>31655.321878</v>
+        <v>31655.321877999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.793145</v>
+        <v>8.7931450000000009</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.170000</v>
+        <v>1413.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.693000</v>
+        <v>-805.69299999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>31666.241800</v>
+        <v>31666.2418</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.796178</v>
+        <v>8.7961779999999994</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1576.150000</v>
+        <v>1576.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1043.810000</v>
+        <v>-1043.81</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>31678.403735</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.799557</v>
+        <v>8.7995570000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1988.040000</v>
+        <v>1988.04</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1598.270000</v>
+        <v>-1598.27</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>31508.431176</v>
+        <v>31508.431175999998</v>
       </c>
       <c r="B15" s="1">
-        <v>8.752342</v>
+        <v>8.7523420000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>906.652000</v>
+        <v>906.65200000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.322000</v>
+        <v>-197.322</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>31518.816943</v>
+        <v>31518.816943000002</v>
       </c>
       <c r="G15" s="1">
-        <v>8.755227</v>
+        <v>8.7552269999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>923.701000</v>
+        <v>923.70100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.563000</v>
+        <v>-167.56299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>31529.567733</v>
       </c>
       <c r="L15" s="1">
-        <v>8.758213</v>
+        <v>8.7582129999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>945.651000</v>
+        <v>945.65099999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.847000</v>
+        <v>-119.84699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>31540.122633</v>
+        <v>31540.122632999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.761145</v>
+        <v>8.7611450000000008</v>
       </c>
       <c r="R15" s="1">
-        <v>952.462000</v>
+        <v>952.46199999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.295000</v>
+        <v>-104.295</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>31550.617440</v>
+        <v>31550.617440000002</v>
       </c>
       <c r="V15" s="1">
-        <v>8.764060</v>
+        <v>8.7640600000000006</v>
       </c>
       <c r="W15" s="1">
-        <v>958.882000</v>
+        <v>958.88199999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.312400</v>
+        <v>-90.312399999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>31560.759140</v>
+        <v>31560.759139999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.766878</v>
+        <v>8.7668780000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.133000</v>
+        <v>966.13300000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.688400</v>
+        <v>-80.688400000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>31571.247509</v>
+        <v>31571.247509000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.769791</v>
+        <v>8.7697909999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.093000</v>
+        <v>971.09299999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.160800</v>
+        <v>-80.160799999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>31581.460135</v>
+        <v>31581.460135000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.772628</v>
+        <v>8.7726279999999992</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.984000</v>
+        <v>978.98400000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.731900</v>
+        <v>-87.731899999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>31592.017977</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.775561</v>
+        <v>8.7755609999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.090000</v>
+        <v>988.09</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.645000</v>
+        <v>-102.645</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>31602.728589</v>
+        <v>31602.728588999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.778536</v>
+        <v>8.7785360000000008</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.352000</v>
+        <v>999.35199999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.200000</v>
+        <v>-124.2</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>31612.887678</v>
+        <v>31612.887677999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.781358</v>
+        <v>8.7813580000000009</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.023000</v>
+        <v>-143.023</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>31623.537248</v>
+        <v>31623.537248000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.784316</v>
+        <v>8.7843160000000005</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.314000</v>
+        <v>-228.31399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>31634.410049</v>
+        <v>31634.410048999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.787336</v>
+        <v>8.7873359999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.744000</v>
+        <v>-365.74400000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>31645.189139</v>
+        <v>31645.189138999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.790330</v>
+        <v>8.7903300000000009</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.560000</v>
+        <v>-578.55999999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>31655.909141</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.793308</v>
+        <v>8.7933079999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.260000</v>
+        <v>1413.26</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.787000</v>
+        <v>-805.78700000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>31666.693655</v>
+        <v>31666.693654999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.796304</v>
+        <v>8.7963039999999992</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1576.210000</v>
+        <v>1576.21</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1043.750000</v>
+        <v>-1043.75</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>31678.943350</v>
+        <v>31678.943350000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.799706</v>
+        <v>8.7997060000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>1989.020000</v>
+        <v>1989.02</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1600.270000</v>
+        <v>-1600.27</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>31509.081432</v>
+        <v>31509.081431999999</v>
       </c>
       <c r="B16" s="1">
-        <v>8.752523</v>
+        <v>8.7525230000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>906.482000</v>
+        <v>906.48199999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.364000</v>
+        <v>-197.364</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>31519.459721</v>
+        <v>31519.459720999999</v>
       </c>
       <c r="G16" s="1">
-        <v>8.755405</v>
+        <v>8.7554049999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>923.149000</v>
+        <v>923.149</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.588000</v>
+        <v>-167.58799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>31529.940254</v>
+        <v>31529.940254000001</v>
       </c>
       <c r="L16" s="1">
-        <v>8.758317</v>
+        <v>8.7583169999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>945.807000</v>
+        <v>945.80700000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.978000</v>
+        <v>-119.97799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>31540.472734</v>
+        <v>31540.472733999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.761242</v>
+        <v>8.7612419999999993</v>
       </c>
       <c r="R16" s="1">
-        <v>952.549000</v>
+        <v>952.54899999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.287000</v>
+        <v>-104.28700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>31550.961137</v>
+        <v>31550.961136999998</v>
       </c>
       <c r="V16" s="1">
-        <v>8.764156</v>
+        <v>8.7641559999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>958.945000</v>
+        <v>958.94500000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.349000</v>
+        <v>-90.349000000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>31561.109779</v>
+        <v>31561.109778999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.766975</v>
+        <v>8.7669750000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.124000</v>
+        <v>966.12400000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.663200</v>
+        <v>-80.663200000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>31571.602152</v>
+        <v>31571.602151999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.769889</v>
+        <v>8.7698889999999992</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.092000</v>
+        <v>971.09199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.080700</v>
+        <v>-80.080699999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>31581.890701</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.772747</v>
+        <v>8.7727470000000007</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.971000</v>
+        <v>978.971</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.744000</v>
+        <v>-87.744</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>31592.303214</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.775640</v>
+        <v>8.7756399999999992</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.063000</v>
+        <v>988.06299999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.651000</v>
+        <v>-102.651</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>31603.027707</v>
+        <v>31603.027707000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.778619</v>
+        <v>8.7786190000000008</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.372000</v>
+        <v>999.37199999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.205000</v>
+        <v>-124.205</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>31613.242816</v>
+        <v>31613.242816000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.781456</v>
+        <v>8.7814560000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.000000</v>
+        <v>-143</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>31623.897840</v>
+        <v>31623.897840000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.784416</v>
+        <v>8.7844160000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.850000</v>
+        <v>1053.8499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.352000</v>
+        <v>-228.352</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>31634.788497</v>
+        <v>31634.788497000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.787441</v>
+        <v>8.7874409999999994</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.050000</v>
+        <v>1133.05</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.733000</v>
+        <v>-365.733</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>31645.611235</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.790448</v>
+        <v>8.7904479999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.506000</v>
+        <v>-578.50599999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>31656.189877</v>
+        <v>31656.189877000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.793386</v>
+        <v>8.7933859999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.310000</v>
+        <v>1413.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.739000</v>
+        <v>-805.73900000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>31667.149511</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.796430</v>
+        <v>8.7964300000000009</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1576.130000</v>
+        <v>1576.13</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1043.720000</v>
+        <v>-1043.72</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>31679.485014</v>
+        <v>31679.485014000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.799857</v>
+        <v>8.7998569999999994</v>
       </c>
       <c r="CE16" s="1">
-        <v>1989.030000</v>
+        <v>1989.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1598.580000</v>
+        <v>-1598.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>31509.457400</v>
+        <v>31509.457399999999</v>
       </c>
       <c r="B17" s="1">
-        <v>8.752627</v>
+        <v>8.7526270000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>906.400000</v>
+        <v>906.4</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.487000</v>
+        <v>-197.48699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>31519.850601</v>
+        <v>31519.850600999998</v>
       </c>
       <c r="G17" s="1">
-        <v>8.755514</v>
+        <v>8.7555139999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>923.461000</v>
+        <v>923.46100000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.211000</v>
+        <v>-167.21100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>31530.294331</v>
+        <v>31530.294331000001</v>
       </c>
       <c r="L17" s="1">
-        <v>8.758415</v>
+        <v>8.7584149999999994</v>
       </c>
       <c r="M17" s="1">
-        <v>945.791000</v>
+        <v>945.79100000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.000000</v>
+        <v>-120</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>31540.819437</v>
+        <v>31540.819436999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.761339</v>
+        <v>8.7613389999999995</v>
       </c>
       <c r="R17" s="1">
-        <v>952.556000</v>
+        <v>952.55600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.277000</v>
+        <v>-104.277</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>31551.304863</v>
+        <v>31551.304863000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.764251</v>
+        <v>8.7642509999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>958.962000</v>
+        <v>958.96199999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.354300</v>
+        <v>-90.354299999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>31561.519474</v>
+        <v>31561.519474000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.767089</v>
+        <v>8.7670890000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.034000</v>
+        <v>966.03399999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.584600</v>
+        <v>-80.584599999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>31572.017796</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.770005</v>
+        <v>8.7700049999999994</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.067000</v>
+        <v>971.06700000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.068100</v>
+        <v>-80.068100000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>31582.168955</v>
+        <v>31582.168955000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.772825</v>
+        <v>8.7728249999999992</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.961000</v>
+        <v>978.96100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.737000</v>
+        <v>-87.736999999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>31592.675179</v>
+        <v>31592.675179000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.775743</v>
+        <v>8.7757430000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.072000</v>
+        <v>988.072</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>31603.393722</v>
+        <v>31603.393722000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.778720</v>
+        <v>8.7787199999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.338000</v>
+        <v>999.33799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.211000</v>
+        <v>-124.211</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>31613.600430</v>
+        <v>31613.600429999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.781556</v>
+        <v>8.7815560000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.016000</v>
+        <v>-143.01599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>31624.628942</v>
+        <v>31624.628941999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.784619</v>
+        <v>8.7846189999999993</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.362000</v>
+        <v>-228.36199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>31635.536500</v>
+        <v>31635.536499999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>8.787649</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.717000</v>
+        <v>-365.71699999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>31645.998084</v>
+        <v>31645.998083999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.790555</v>
+        <v>8.7905549999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.545000</v>
+        <v>-578.54499999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>31656.599605</v>
+        <v>31656.599604999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.793500</v>
+        <v>8.7934999999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.310000</v>
+        <v>1413.31</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.823000</v>
+        <v>-805.82299999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>31667.597366</v>
+        <v>31667.597366000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.796555</v>
+        <v>8.7965549999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1576.080000</v>
+        <v>1576.08</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1043.760000</v>
+        <v>-1043.76</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>31680.329701</v>
+        <v>31680.329700999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.800092</v>
+        <v>8.8000919999999994</v>
       </c>
       <c r="CE17" s="1">
-        <v>1989.410000</v>
+        <v>1989.41</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1600.130000</v>
+        <v>-1600.13</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>31509.804102</v>
+        <v>31509.804101999998</v>
       </c>
       <c r="B18" s="1">
-        <v>8.752723</v>
+        <v>8.7527229999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>906.573000</v>
+        <v>906.57299999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.498000</v>
+        <v>-197.49799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>31520.194794</v>
+        <v>31520.194793999999</v>
       </c>
       <c r="G18" s="1">
-        <v>8.755610</v>
+        <v>8.7556100000000008</v>
       </c>
       <c r="H18" s="1">
-        <v>923.227000</v>
+        <v>923.22699999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.523000</v>
+        <v>-167.523</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>31530.641034</v>
       </c>
       <c r="L18" s="1">
-        <v>8.758511</v>
+        <v>8.7585110000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>945.823000</v>
+        <v>945.82299999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.921000</v>
+        <v>-119.92100000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>31541.234625</v>
+        <v>31541.234625000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.761454</v>
+        <v>8.7614540000000005</v>
       </c>
       <c r="R18" s="1">
-        <v>952.551000</v>
+        <v>952.55100000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.247000</v>
+        <v>-104.247</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>31551.736382</v>
+        <v>31551.736381999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.764371</v>
+        <v>8.7643710000000006</v>
       </c>
       <c r="W18" s="1">
-        <v>959.001000</v>
+        <v>959.00099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.370000</v>
+        <v>-90.37</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>31561.815585</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.767171</v>
+        <v>8.7671709999999994</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.177000</v>
+        <v>966.17700000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.594000</v>
+        <v>-80.593999999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>31572.297043</v>
+        <v>31572.297042999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.770083</v>
+        <v>8.7700829999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.102000</v>
+        <v>971.10199999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.067000</v>
+        <v>-80.066999999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>31582.517110</v>
+        <v>31582.517110000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.772921</v>
+        <v>8.7729210000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.963000</v>
+        <v>978.96299999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.738900</v>
+        <v>-87.738900000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>31593.035273</v>
+        <v>31593.035273000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.775843</v>
+        <v>8.7758430000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.089000</v>
+        <v>988.08900000000006</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.624000</v>
+        <v>-102.624</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>31603.758814</v>
+        <v>31603.758814000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.778822</v>
+        <v>8.7788219999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.211000</v>
+        <v>-124.211</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>31614.325548</v>
+        <v>31614.325548000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.781757</v>
+        <v>8.7817570000000007</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.022000</v>
+        <v>-143.02199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>31625.003453</v>
+        <v>31625.003453000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.784723</v>
+        <v>8.7847229999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.343000</v>
+        <v>-228.34299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>31635.909987</v>
+        <v>31635.909986999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.787753</v>
+        <v>8.7877530000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.060000</v>
+        <v>1133.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.770000</v>
+        <v>-365.77</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>31646.428114</v>
+        <v>31646.428113999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.790674</v>
+        <v>8.7906739999999992</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.566000</v>
+        <v>-578.56600000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>31657.343075</v>
+        <v>31657.343075000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.793706</v>
+        <v>8.7937060000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.360000</v>
+        <v>1413.36</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.893000</v>
+        <v>-805.89300000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>31668.329990</v>
+        <v>31668.329989999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.796758</v>
+        <v>8.7967580000000005</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1576.200000</v>
+        <v>1576.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1043.740000</v>
+        <v>-1043.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>31680.563780</v>
+        <v>31680.56378</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.800157</v>
+        <v>8.8001570000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>1989.620000</v>
+        <v>1989.62</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1600.250000</v>
+        <v>-1600.25</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>31510.145847</v>
       </c>
       <c r="B19" s="1">
-        <v>8.752818</v>
+        <v>8.7528179999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>906.470000</v>
+        <v>906.47</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.454000</v>
+        <v>-197.45400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>31520.540999</v>
+        <v>31520.540999000001</v>
       </c>
       <c r="G19" s="1">
         <v>8.755706</v>
       </c>
       <c r="H19" s="1">
-        <v>923.676000</v>
+        <v>923.67600000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.821000</v>
+        <v>-167.821</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>31531.064160</v>
+        <v>31531.064160000002</v>
       </c>
       <c r="L19" s="1">
-        <v>8.758629</v>
+        <v>8.7586290000000009</v>
       </c>
       <c r="M19" s="1">
-        <v>945.855000</v>
+        <v>945.85500000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.828000</v>
+        <v>-119.828</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>31541.519788</v>
+        <v>31541.519788000001</v>
       </c>
       <c r="Q19" s="1">
         <v>8.761533</v>
       </c>
       <c r="R19" s="1">
-        <v>952.577000</v>
+        <v>952.577</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.234000</v>
+        <v>-104.23399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>31552.017631</v>
+        <v>31552.017630999999</v>
       </c>
       <c r="V19" s="1">
-        <v>8.764449</v>
+        <v>8.7644490000000008</v>
       </c>
       <c r="W19" s="1">
-        <v>958.979000</v>
+        <v>958.97900000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.304900</v>
+        <v>-90.304900000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>31562.164312</v>
+        <v>31562.164312000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.767268</v>
+        <v>8.7672679999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.163000</v>
+        <v>966.16300000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.676600</v>
+        <v>-80.676599999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>31572.640770</v>
+        <v>31572.640770000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.770178</v>
+        <v>8.7701779999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.120000</v>
+        <v>971.12</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.105800</v>
+        <v>-80.105800000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31582.864311</v>
+        <v>31582.864311000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.773018</v>
+        <v>8.7730180000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.936000</v>
+        <v>978.93600000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.753600</v>
+        <v>-87.753600000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>31593.758935</v>
+        <v>31593.758935000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.776044</v>
+        <v>8.7760440000000006</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.081000</v>
+        <v>988.08100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.628000</v>
+        <v>-102.628</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>31604.488923</v>
+        <v>31604.488923000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.779025</v>
+        <v>8.7790250000000007</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.354000</v>
+        <v>999.35400000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.192000</v>
+        <v>-124.19199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>31614.701019</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.781861</v>
+        <v>8.7818609999999993</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.032000</v>
+        <v>-143.03200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>31625.367982</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.784824</v>
+        <v>8.7848240000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.344000</v>
+        <v>-228.34399999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>31636.284927</v>
+        <v>31636.284927000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.787857</v>
+        <v>8.7878570000000007</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.080000</v>
+        <v>1133.08</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.725000</v>
+        <v>-365.72500000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>31647.141889</v>
+        <v>31647.141888999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.790873</v>
+        <v>8.7908729999999995</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.543000</v>
+        <v>-578.54300000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>31657.461136</v>
+        <v>31657.461136000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.793739</v>
+        <v>8.7937390000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.903000</v>
+        <v>-805.90300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>31668.470325</v>
+        <v>31668.470324999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.796797</v>
+        <v>8.7967969999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1576.100000</v>
+        <v>1576.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1043.730000</v>
+        <v>-1043.73</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>31681.082595</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.800301</v>
+        <v>8.8003009999999993</v>
       </c>
       <c r="CE19" s="1">
-        <v>1989.780000</v>
+        <v>1989.78</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1598.400000</v>
+        <v>-1598.4</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>31510.567941</v>
+        <v>31510.567941000001</v>
       </c>
       <c r="B20" s="1">
         <v>8.752936</v>
       </c>
       <c r="C20" s="1">
-        <v>906.635000</v>
+        <v>906.63499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.532000</v>
+        <v>-197.53200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>31520.966073</v>
       </c>
       <c r="G20" s="1">
-        <v>8.755824</v>
+        <v>8.7558240000000005</v>
       </c>
       <c r="H20" s="1">
-        <v>923.073000</v>
+        <v>923.07299999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.298000</v>
+        <v>-167.298</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>31531.343902</v>
+        <v>31531.343902000001</v>
       </c>
       <c r="L20" s="1">
-        <v>8.758707</v>
+        <v>8.7587069999999994</v>
       </c>
       <c r="M20" s="1">
-        <v>945.666000</v>
+        <v>945.66600000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.939000</v>
+        <v>-119.93899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>31541.863517</v>
+        <v>31541.863517000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.761629</v>
+        <v>8.7616289999999992</v>
       </c>
       <c r="R20" s="1">
-        <v>952.571000</v>
+        <v>952.57100000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.231000</v>
+        <v>-104.23099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>31552.361342</v>
@@ -5167,1737 +5583,1738 @@
         <v>8.764545</v>
       </c>
       <c r="W20" s="1">
-        <v>958.981000</v>
+        <v>958.98099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.345300</v>
+        <v>-90.345299999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>31562.511472</v>
+        <v>31562.511471999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.767364</v>
+        <v>8.7673640000000006</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.265000</v>
+        <v>966.26499999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.608300</v>
+        <v>-80.6083</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>31573.326243</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.770368</v>
+        <v>8.7703679999999995</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.074000</v>
+        <v>971.07399999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.099500</v>
+        <v>-80.099500000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>31583.562213</v>
+        <v>31583.562213000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.773212</v>
+        <v>8.7732119999999991</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.961000</v>
+        <v>978.96100000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.741500</v>
+        <v>-87.741500000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>31594.137415</v>
+        <v>31594.137415000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.776149</v>
+        <v>8.7761490000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.103000</v>
+        <v>988.10299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.634000</v>
+        <v>-102.634</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>31604.850969</v>
+        <v>31604.850968999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.779125</v>
+        <v>8.7791250000000005</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.354000</v>
+        <v>999.35400000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.197000</v>
+        <v>-124.197</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>31615.079963</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.781967</v>
+        <v>8.7819669999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.028000</v>
+        <v>-143.02799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>31626.032620</v>
+        <v>31626.032620000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.785009</v>
+        <v>8.7850090000000005</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.325000</v>
+        <v>-228.32499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>31636.962495</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.788045</v>
+        <v>8.7880450000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.080000</v>
+        <v>1133.08</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.732000</v>
+        <v>-365.73200000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>31647.252970</v>
+        <v>31647.252970000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.790904</v>
+        <v>8.7909039999999994</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.540000</v>
+        <v>-578.54</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>31657.898631</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.793861</v>
+        <v>8.7938609999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.430000</v>
+        <v>1413.43</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.916000</v>
+        <v>-805.91600000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>31668.895396</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.796915</v>
+        <v>8.7969150000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1576.230000</v>
+        <v>1576.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1043.640000</v>
+        <v>-1043.6400000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>31681.600915</v>
+        <v>31681.600914999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.800445</v>
+        <v>8.8004449999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1988.090000</v>
+        <v>1988.09</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1598.400000</v>
+        <v>-1598.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>31510.844708</v>
+        <v>31510.844708000001</v>
       </c>
       <c r="B21" s="1">
         <v>8.753012</v>
       </c>
       <c r="C21" s="1">
-        <v>906.511000</v>
+        <v>906.51099999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.482000</v>
+        <v>-197.482</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>31521.229943</v>
+        <v>31521.229942999998</v>
       </c>
       <c r="G21" s="1">
-        <v>8.755897</v>
+        <v>8.7558969999999992</v>
       </c>
       <c r="H21" s="1">
-        <v>923.388000</v>
+        <v>923.38800000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.535000</v>
+        <v>-167.535</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>31531.685114</v>
       </c>
       <c r="L21" s="1">
-        <v>8.758801</v>
+        <v>8.7588010000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>945.627000</v>
+        <v>945.62699999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.777000</v>
+        <v>-119.777</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>31542.211211</v>
+        <v>31542.211211000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.761725</v>
+        <v>8.7617250000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>952.541000</v>
+        <v>952.54100000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.316000</v>
+        <v>-104.316</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>31552.705565</v>
       </c>
       <c r="V21" s="1">
-        <v>8.764640</v>
+        <v>8.76464</v>
       </c>
       <c r="W21" s="1">
-        <v>958.927000</v>
+        <v>958.92700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.314600</v>
+        <v>-90.314599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>31563.208351</v>
+        <v>31563.208351000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.767558</v>
+        <v>8.7675579999999993</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.151000</v>
+        <v>966.15099999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.595000</v>
+        <v>-80.594999999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>31573.669655</v>
+        <v>31573.669655000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.770464</v>
+        <v>8.7704640000000005</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.084000</v>
+        <v>971.08399999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.097800</v>
+        <v>-80.097800000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>31583.910405</v>
+        <v>31583.910404999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.773308</v>
+        <v>8.7733080000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.959000</v>
+        <v>978.95899999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.720300</v>
+        <v>-87.720299999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>31594.499464</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.776250</v>
+        <v>8.7762499999999992</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.082000</v>
+        <v>988.08199999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.659000</v>
+        <v>-102.65900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>31605.225448</v>
+        <v>31605.225448000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.779229</v>
+        <v>8.7792290000000008</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.371000</v>
+        <v>999.37099999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.180000</v>
+        <v>-124.18</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>31615.749378</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.782153</v>
+        <v>8.7821529999999992</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.021000</v>
+        <v>-143.02099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>31626.484476</v>
+        <v>31626.484476000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.785135</v>
+        <v>8.7851350000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.860000</v>
+        <v>1053.8599999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.349000</v>
+        <v>-228.34899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>31637.070591</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.788075</v>
+        <v>8.7880749999999992</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.080000</v>
+        <v>1133.08</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.730000</v>
+        <v>-365.73</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>31647.674096</v>
+        <v>31647.674095999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.791021</v>
+        <v>8.7910210000000006</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.525000</v>
+        <v>-578.52499999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>31658.312095</v>
+        <v>31658.312095000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.793976</v>
+        <v>8.7939760000000007</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV21" s="1">
-        <v>-806.050000</v>
+        <v>-806.05</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>31669.313523</v>
+        <v>31669.313523000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.797032</v>
+        <v>8.7970319999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1576.330000</v>
+        <v>1576.33</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1043.640000</v>
+        <v>-1043.6400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>31682.117779</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.800588</v>
+        <v>8.8005879999999994</v>
       </c>
       <c r="CE21" s="1">
-        <v>1988.000000</v>
+        <v>1988</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1599.930000</v>
+        <v>-1599.93</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>31511.188964</v>
+        <v>31511.188964000001</v>
       </c>
       <c r="B22" s="1">
-        <v>8.753108</v>
+        <v>8.7531079999999992</v>
       </c>
       <c r="C22" s="1">
-        <v>906.513000</v>
+        <v>906.51300000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.388000</v>
+        <v>-197.38800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>31521.579126</v>
+        <v>31521.579126000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.755994</v>
+        <v>8.7559939999999994</v>
       </c>
       <c r="H22" s="1">
-        <v>923.011000</v>
+        <v>923.01099999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.264000</v>
+        <v>-167.26400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>31532.037274</v>
+        <v>31532.037273999998</v>
       </c>
       <c r="L22" s="1">
-        <v>8.758899</v>
+        <v>8.7588989999999995</v>
       </c>
       <c r="M22" s="1">
-        <v>945.793000</v>
+        <v>945.79300000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.095000</v>
+        <v>-120.095</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>31542.910074</v>
+        <v>31542.910073999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.761919</v>
+        <v>8.7619190000000007</v>
       </c>
       <c r="R22" s="1">
-        <v>952.550000</v>
+        <v>952.55</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.268000</v>
+        <v>-104.268</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>31553.394508</v>
+        <v>31553.394508000001</v>
       </c>
       <c r="V22" s="1">
-        <v>8.764832</v>
+        <v>8.7648320000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>958.914000</v>
+        <v>958.91399999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.343100</v>
+        <v>-90.343100000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>31563.556577</v>
+        <v>31563.556576999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.767655</v>
+        <v>8.7676549999999995</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.168000</v>
+        <v>966.16800000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.607700</v>
+        <v>-80.607699999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>31574.015186</v>
+        <v>31574.015186000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.770560</v>
+        <v>8.7705599999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.052000</v>
+        <v>971.05200000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.086100</v>
+        <v>-80.086100000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>31584.257572</v>
+        <v>31584.257571999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.773405</v>
+        <v>8.7734050000000003</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.968000</v>
+        <v>978.96799999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.728600</v>
+        <v>-87.7286</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>31595.165621</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.776435</v>
+        <v>8.7764349999999993</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.070000</v>
+        <v>988.07</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>31605.673833</v>
+        <v>31605.673833000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.779354</v>
+        <v>8.7793539999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.382000</v>
+        <v>999.38199999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.193000</v>
+        <v>-124.193</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>31616.163723</v>
+        <v>31616.163723000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.782268</v>
+        <v>8.7822680000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.890000</v>
+        <v>1008.89</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.016000</v>
+        <v>-143.01599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>31626.845563</v>
+        <v>31626.845562999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.785235</v>
+        <v>8.7852350000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.351000</v>
+        <v>-228.351</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>31637.436638</v>
+        <v>31637.436637999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.788177</v>
+        <v>8.7881769999999992</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.060000</v>
+        <v>1133.06</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.761000</v>
+        <v>-365.76100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>31648.068912</v>
+        <v>31648.068911999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.791130</v>
+        <v>8.7911300000000008</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.574000</v>
+        <v>-578.57399999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>31658.742289</v>
+        <v>31658.742289000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.794095</v>
+        <v>8.7940950000000004</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV22" s="1">
-        <v>-806.092000</v>
+        <v>-806.09199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>31669.758963</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.797155</v>
+        <v>8.7971550000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1576.100000</v>
+        <v>1576.1</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1043.710000</v>
+        <v>-1043.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>31682.637587</v>
+        <v>31682.637587000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.800733</v>
+        <v>8.8007329999999993</v>
       </c>
       <c r="CE22" s="1">
-        <v>1987.870000</v>
+        <v>1987.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1599.550000</v>
+        <v>-1599.55</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>31511.529684</v>
+        <v>31511.529684000001</v>
       </c>
       <c r="B23" s="1">
-        <v>8.753203</v>
+        <v>8.7532029999999992</v>
       </c>
       <c r="C23" s="1">
-        <v>906.468000</v>
+        <v>906.46799999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.427000</v>
+        <v>-197.42699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>31521.922358</v>
       </c>
       <c r="G23" s="1">
-        <v>8.756090</v>
+        <v>8.7560900000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>923.790000</v>
+        <v>923.79</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.365000</v>
+        <v>-167.36500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>31532.723749</v>
+        <v>31532.723749000001</v>
       </c>
       <c r="L23" s="1">
-        <v>8.759090</v>
+        <v>8.7590900000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>945.928000</v>
+        <v>945.928</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.640000</v>
+        <v>-119.64</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>31543.259259</v>
+        <v>31543.259258999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.762016</v>
+        <v>8.7620159999999991</v>
       </c>
       <c r="R23" s="1">
-        <v>952.551000</v>
+        <v>952.55100000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.270000</v>
+        <v>-104.27</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>31553.735788</v>
+        <v>31553.735788000002</v>
       </c>
       <c r="V23" s="1">
-        <v>8.764927</v>
+        <v>8.7649270000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>959.053000</v>
+        <v>959.053</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.365600</v>
+        <v>-90.365600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>31563.906257</v>
+        <v>31563.906256999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.767752</v>
+        <v>8.7677519999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.239000</v>
+        <v>966.23900000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.503000</v>
+        <v>-80.503</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>31574.671925</v>
+        <v>31574.671924999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.770742</v>
+        <v>8.7707420000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.104000</v>
+        <v>971.10400000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.109600</v>
+        <v>-80.1096</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>31584.918739</v>
+        <v>31584.918739000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.773589</v>
+        <v>8.7735889999999994</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.968000</v>
+        <v>978.96799999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.768600</v>
+        <v>-87.768600000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>31595.579781</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.776550</v>
+        <v>8.7765500000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.094000</v>
+        <v>988.09400000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.656000</v>
+        <v>-102.65600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>31605.943656</v>
+        <v>31605.943655999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.779429</v>
+        <v>8.7794290000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.351000</v>
+        <v>999.351</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>31616.538201</v>
+        <v>31616.538200999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.782372</v>
+        <v>8.7823720000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.998000</v>
+        <v>-142.99799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>31627.204699</v>
+        <v>31627.204699000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.785335</v>
+        <v>8.7853349999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.373000</v>
+        <v>-228.37299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>31637.813891</v>
+        <v>31637.813891000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.788282</v>
+        <v>8.7882820000000006</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.060000</v>
+        <v>1133.06</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.748000</v>
+        <v>-365.74799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>31648.490976</v>
+        <v>31648.490976000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.791247</v>
+        <v>8.7912470000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.536000</v>
+        <v>-578.53599999999994</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>31659.170337</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.794214</v>
+        <v>8.7942140000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV23" s="1">
-        <v>-806.209000</v>
+        <v>-806.20899999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>31670.179540</v>
+        <v>31670.179540000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.797272</v>
+        <v>8.7972719999999995</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1576.180000</v>
+        <v>1576.18</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1043.720000</v>
+        <v>-1043.72</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>31683.188640</v>
+        <v>31683.18864</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.800886</v>
+        <v>8.8008860000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1988.240000</v>
+        <v>1988.24</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1598.430000</v>
+        <v>-1598.43</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>31512.211186</v>
       </c>
       <c r="B24" s="1">
-        <v>8.753392</v>
+        <v>8.7533919999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>906.691000</v>
+        <v>906.69100000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.274000</v>
+        <v>-197.274</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>31522.611302</v>
+        <v>31522.611302000001</v>
       </c>
       <c r="G24" s="1">
-        <v>8.756281</v>
+        <v>8.7562809999999995</v>
       </c>
       <c r="H24" s="1">
-        <v>923.734000</v>
+        <v>923.73400000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.228000</v>
+        <v>-167.22800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>31533.074904</v>
+        <v>31533.074904000001</v>
       </c>
       <c r="L24" s="1">
-        <v>8.759187</v>
+        <v>8.7591870000000007</v>
       </c>
       <c r="M24" s="1">
-        <v>945.971000</v>
+        <v>945.971</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.699000</v>
+        <v>-119.699</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>31543.608441</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.762113</v>
+        <v>8.7621129999999994</v>
       </c>
       <c r="R24" s="1">
-        <v>952.536000</v>
+        <v>952.53599999999994</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.216000</v>
+        <v>-104.21599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>31554.080012</v>
+        <v>31554.080011999999</v>
       </c>
       <c r="V24" s="1">
-        <v>8.765022</v>
+        <v>8.7650220000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.957000</v>
+        <v>958.95699999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.308800</v>
+        <v>-90.308800000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>31564.578303</v>
+        <v>31564.578302999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.767938</v>
+        <v>8.7679379999999991</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.286000</v>
+        <v>966.28599999999994</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.632100</v>
+        <v>-80.632099999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>31575.045872</v>
+        <v>31575.045871999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.770846</v>
+        <v>8.7708460000000006</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.135000</v>
+        <v>971.13499999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.075700</v>
+        <v>-80.075699999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>31585.305122</v>
+        <v>31585.305122000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.773696</v>
+        <v>8.7736959999999993</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.962000</v>
+        <v>978.96199999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.731500</v>
+        <v>-87.731499999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>31595.960679</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.776656</v>
+        <v>8.7766559999999991</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.083000</v>
+        <v>988.08299999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.629000</v>
+        <v>-102.629</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>31606.310727</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.779531</v>
+        <v>8.7795310000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.356000</v>
+        <v>999.35599999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.199000</v>
+        <v>-124.199</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>31616.914202</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.782476</v>
+        <v>8.7824760000000008</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.890000</v>
+        <v>1008.89</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.012000</v>
+        <v>-143.012</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>31627.628252</v>
+        <v>31627.628251999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.785452</v>
+        <v>8.7854519999999994</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.900000</v>
+        <v>1053.9000000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.346000</v>
+        <v>-228.346</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>31638.256028</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.788404</v>
+        <v>8.7884039999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.761000</v>
+        <v>-365.76100000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>31648.888272</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.791358</v>
+        <v>8.7913580000000007</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.537000</v>
+        <v>-578.53700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>31659.581558</v>
+        <v>31659.581558000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.794328</v>
+        <v>8.7943280000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV24" s="1">
-        <v>-806.243000</v>
+        <v>-806.24300000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>31670.603121</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.797390</v>
+        <v>8.79739</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.000000</v>
+        <v>1576</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1043.670000</v>
+        <v>-1043.67</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>31683.717840</v>
+        <v>31683.717840000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.801033</v>
+        <v>8.8010330000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.790000</v>
+        <v>1987.79</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1600.140000</v>
+        <v>-1600.14</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>31512.555907</v>
+        <v>31512.555907000002</v>
       </c>
       <c r="B25" s="1">
-        <v>8.753488</v>
+        <v>8.7534880000000008</v>
       </c>
       <c r="C25" s="1">
-        <v>906.106000</v>
+        <v>906.10599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.378000</v>
+        <v>-197.37799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>31522.952549</v>
+        <v>31522.952549000001</v>
       </c>
       <c r="G25" s="1">
-        <v>8.756376</v>
+        <v>8.7563759999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>923.549000</v>
+        <v>923.54899999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.344000</v>
+        <v>-167.34399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>31533.420157</v>
       </c>
       <c r="L25" s="1">
-        <v>8.759283</v>
+        <v>8.7592829999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>945.935000</v>
+        <v>945.93499999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.913000</v>
+        <v>-119.913</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>31544.265144</v>
+        <v>31544.265144000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.762296</v>
+        <v>8.7622959999999992</v>
       </c>
       <c r="R25" s="1">
-        <v>952.620000</v>
+        <v>952.62</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.242000</v>
+        <v>-104.242</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>31554.756523</v>
       </c>
       <c r="V25" s="1">
-        <v>8.765210</v>
+        <v>8.7652099999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>958.909000</v>
+        <v>958.90899999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.373500</v>
+        <v>-90.373500000000007</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>31564.951789</v>
+        <v>31564.951788999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.768042</v>
+        <v>8.7680419999999994</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.130000</v>
+        <v>966.13</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.675800</v>
+        <v>-80.675799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>31575.388608</v>
+        <v>31575.388608000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.770941</v>
+        <v>8.7709410000000005</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.096000</v>
+        <v>971.096</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.049500</v>
+        <v>-80.049499999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>31585.653811</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.773793</v>
+        <v>8.7737929999999995</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.983000</v>
+        <v>978.98299999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.738700</v>
+        <v>-87.738699999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>31596.321269</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.776756</v>
+        <v>8.7767560000000007</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.075000</v>
+        <v>988.07500000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.660000</v>
+        <v>-102.66</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>31606.726342</v>
+        <v>31606.726342000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.779646</v>
+        <v>8.7796459999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.352000</v>
+        <v>999.35199999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.214000</v>
+        <v>-124.214</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>31617.330808</v>
+        <v>31617.330807999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.782592</v>
+        <v>8.7825919999999993</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.910000</v>
+        <v>1008.91</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.001000</v>
+        <v>-143.001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>31627.929322</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.785536</v>
+        <v>8.7855360000000005</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.351000</v>
+        <v>-228.351</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>31638.609198</v>
+        <v>31638.609197999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.788503</v>
+        <v>8.7885030000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.749000</v>
+        <v>-365.74900000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>31649.310894</v>
+        <v>31649.310893999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.791475</v>
+        <v>8.7914750000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.551000</v>
+        <v>-578.55100000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>31660.011851</v>
+        <v>31660.011850999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.794448</v>
+        <v>8.7944479999999992</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV25" s="1">
-        <v>-806.259000</v>
+        <v>-806.25900000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>31671.054481</v>
+        <v>31671.054480999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.797515</v>
+        <v>8.7975150000000006</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1576.110000</v>
+        <v>1576.11</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1043.800000</v>
+        <v>-1043.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>31684.237680</v>
+        <v>31684.237679999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.801177</v>
+        <v>8.8011769999999991</v>
       </c>
       <c r="CE25" s="1">
-        <v>1990.110000</v>
+        <v>1990.11</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1599.690000</v>
+        <v>-1599.69</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>31512.898642</v>
       </c>
       <c r="B26" s="1">
-        <v>8.753583</v>
+        <v>8.7535830000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>906.701000</v>
+        <v>906.70100000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.425000</v>
+        <v>-197.42500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>31523.607287</v>
+        <v>31523.607286999999</v>
       </c>
       <c r="G26" s="1">
-        <v>8.756558</v>
+        <v>8.7565580000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>923.500000</v>
+        <v>923.5</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.215000</v>
+        <v>-167.215</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>31534.079338</v>
       </c>
       <c r="L26" s="1">
-        <v>8.759466</v>
+        <v>8.7594659999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>945.719000</v>
+        <v>945.71900000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.759000</v>
+        <v>-119.759</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>31544.657512</v>
+        <v>31544.657512000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.762405</v>
+        <v>8.7624049999999993</v>
       </c>
       <c r="R26" s="1">
-        <v>952.609000</v>
+        <v>952.60900000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.311000</v>
+        <v>-104.31100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>31555.116155</v>
       </c>
       <c r="V26" s="1">
-        <v>8.765310</v>
+        <v>8.7653099999999995</v>
       </c>
       <c r="W26" s="1">
-        <v>958.970000</v>
+        <v>958.97</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.346300</v>
+        <v>-90.346299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>31565.301966</v>
+        <v>31565.301965999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.768139</v>
+        <v>8.7681389999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.202000</v>
+        <v>966.202</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.616000</v>
+        <v>-80.616</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>31575.731343</v>
+        <v>31575.731342999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.771036</v>
+        <v>8.7710360000000005</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.113000</v>
+        <v>971.11300000000006</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.079900</v>
+        <v>-80.079899999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>31586.002530</v>
+        <v>31586.002530000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.773890</v>
+        <v>8.7738899999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.970000</v>
+        <v>978.97</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.762800</v>
+        <v>-87.762799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>31596.741379</v>
+        <v>31596.741378999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.776873</v>
+        <v>8.7768730000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.074000</v>
+        <v>988.07399999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>31607.038358</v>
+        <v>31607.038358000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.779733</v>
+        <v>8.7797330000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.365000</v>
+        <v>999.36500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.200000</v>
+        <v>-124.2</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>31617.633399</v>
+        <v>31617.633398999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.782676</v>
+        <v>8.7826760000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.900000</v>
+        <v>1008.9</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.018000</v>
+        <v>-143.018</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>31628.290444</v>
+        <v>31628.290443999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.785636</v>
+        <v>8.7856360000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.349000</v>
+        <v>-228.34899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>31638.938028</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.788594</v>
+        <v>8.7885939999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.080000</v>
+        <v>1133.08</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.773000</v>
+        <v>-365.77300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>31649.704713</v>
+        <v>31649.704712999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.791585</v>
+        <v>8.7915849999999995</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.588000</v>
+        <v>-578.58799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>31660.441617</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.794567</v>
+        <v>8.7945670000000007</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.430000</v>
+        <v>1413.43</v>
       </c>
       <c r="BV26" s="1">
-        <v>-806.386000</v>
+        <v>-806.38599999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>31671.488976</v>
+        <v>31671.488976000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.797636</v>
+        <v>8.7976360000000007</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1576.150000</v>
+        <v>1576.15</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1043.740000</v>
+        <v>-1043.74</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>31684.777326</v>
+        <v>31684.777325999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.801327</v>
+        <v>8.8013270000000006</v>
       </c>
       <c r="CE26" s="1">
-        <v>1987.680000</v>
+        <v>1987.68</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1598.790000</v>
+        <v>-1598.79</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>